--- a/example-output/xslx/NY_cafr2012-statement_of_activities.xlsx
+++ b/example-output/xslx/NY_cafr2012-statement_of_activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NY_cafr2012-statement_of_activi" sheetId="1" r:id="rId1"/>
@@ -1303,7 +1303,7 @@
         <v>37985</v>
       </c>
       <c r="C32" s="14">
-        <v>658</v>
+        <v>-658</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -1601,7 +1601,7 @@
         <v>30828</v>
       </c>
       <c r="G46" s="12">
-        <v>26607</v>
+        <v>-26607</v>
       </c>
       <c r="H46" s="13">
         <v>4122</v>
